--- a/4) Февраль/914/914 Разработка моб приложений_февраль.xlsx
+++ b/4) Февраль/914/914 Разработка моб приложений_февраль.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\4) Февраль\914\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02533BE4-E994-4866-9C82-2570E66A2AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516016D0-AC4D-4D54-8461-FC56EDF09D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="38">
   <si>
     <t>ФИО</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>Лаба 10</t>
+  </si>
+  <si>
+    <t>Лекция 3.2</t>
+  </si>
+  <si>
+    <t>Лекция 3.3</t>
+  </si>
+  <si>
+    <t>Практика 2.11</t>
+  </si>
+  <si>
+    <t>Практика 2.12</t>
+  </si>
+  <si>
+    <t>Практика 2.13</t>
   </si>
 </sst>
 </file>
@@ -251,7 +266,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,6 +1355,39 @@
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
